--- a/doc/avancement.xlsx
+++ b/doc/avancement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="170" windowWidth="14810" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Avancement" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="quantification du taf" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="NOK">Avancement!$J$31:$J$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Avancement!$A$2:$V$45</definedName>
+    <definedName name="NOK">Avancement!$J$33:$J$37</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="302">
   <si>
     <t>Tableau récapitulatif</t>
   </si>
@@ -1219,9 +1220,6 @@
     <t>modif pour evol #48</t>
   </si>
   <si>
-    <t>N° version plugin changé à V0,5</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Modification de </t>
     </r>
@@ -1350,12 +1348,6 @@
     <t>modif pour evol #50</t>
   </si>
   <si>
-    <t>ca affecte uniquement la "section" AS car elle est parente des autres, ca nous affiche effectivement 1183 lignes alors qu'il n'y a que 522 adhérents.
-Solution palliative: si l'objectif est d'envoyer un mail, il n'y a pas de problème, le mail sera envoyé 1 fois aux 522 adhérents.
-Si l'objectif est de sortir une liste, tu peux voir dans navigation/gestion des groupes/ adhérents et faire un export en pdf (tout en bas) ou bien suivre la procédure d'export excel.
-Solution définitive: modifier le code source galette mais trop complexe à faire</t>
-  </si>
-  <si>
     <t xml:space="preserve">Script fonctionnel placé dans le répertoire sauvegarde_bdd
 execution du script à une heure non dérangeante: 3h00
 Fait une sauvegarde par an (juillet) (ca nous donne le bilan de l'année avant le reset saison)
@@ -1387,6 +1379,138 @@
 MH : 15
 EV : 18
 EH : 23</t>
+  </si>
+  <si>
+    <t>V1.1</t>
+  </si>
+  <si>
+    <t>export_subs.tpl</t>
+  </si>
+  <si>
+    <t>export_subs.php</t>
+  </si>
+  <si>
+    <t>Patrick lachaise</t>
+  </si>
+  <si>
+    <t>Besoin d'avoir la liste des adhérents de la muscu et de filtrer sur les extérieurs pour les donner au CE de citröen</t>
+  </si>
+  <si>
+    <t>Création de la page "export_subs.tpl et php" et modification de la page "management_subs.tpl" pour télécharger 2 fichiers csv avec la liste des adhérents et la liste des abonnements</t>
+  </si>
+  <si>
+    <t>Création du fichier Evol 52</t>
+  </si>
+  <si>
+    <t>N° version plugin changé à V1.0</t>
+  </si>
+  <si>
+    <t>modification du fichier pour evol #52</t>
+  </si>
+  <si>
+    <t>get_export.php</t>
+  </si>
+  <si>
+    <t>evol #52</t>
+  </si>
+  <si>
+    <t>26/10/15: ca affecte uniquement la "section" AS car elle est parente des autres, ca nous affiche effectivement 1183 lignes alors qu'il n'y a que 522 adhérents.
+Solution palliative: si l'objectif est d'envoyer un mail, il n'y a pas de problème, le mail sera envoyé 1 fois aux 522 adhérents.
+Si l'objectif est de sortir une liste, tu peux voir dans navigation/gestion des groupes/ adhérents et faire un export en pdf (tout en bas) ou bien suivre la procédure d'export excel.
+Solution définitive: modifier le code source galette mais trop complexe à faire.</t>
+  </si>
+  <si>
+    <t>Lié au bug #46
+Mon besoin est de pouvoir écrire :
+ ·         à l’ensemble de la liste actuelle qui augmente chaque année pour éventuellement les relancer (aujourd’hui 736 personnes)
+·         à l’ensemble des inscrits de l’année pour divers message (500 environ)
+·         à chaque membre de section (pour des messages spécifiques.
+A cela, il faut pouvoir joindre des pièces jointes (ou un lien) .
+Il faut quelque chose de simple qui provienne  d’une source sure (adresse AS nexter) sinon les antivirus vont rejeter les messages.</t>
+  </si>
+  <si>
+    <r>
+      <t>De : Marc Labé [mailto:marclabe91@gmail.com] 
+Envoyé : mardi 22 décembre 2015 15:19
+À : GOUTTE Fabien
+Objet : Re: galette
+Bonjour Fabien
+Bonjour Amaury
+Je comprends les difficultés liées à quelques bugs, rencontrées sur le site de Galette. Je pense qu'on atteint les limites fonctionnelles de Galette qui ne gère pas le timing des départs de messages, ni les adresses en erreur, ni les désincriptions.
+Aujourd'hui nous avons 470 adhérents mais j'ai compté plus de 700 personnes, si on veut faire un mail à toutes les personnes ayant été inscrites sur les 2 dernières années en septembre pour leur annoncer l'ouverture des inscriptions, il faut bien procéder par paquets et planifier sur plusieurs jours.
+Aujourd'hui OVH nous limite à</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 500 par jour mais également à 200 par heure </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de mémoire. Ces valeurs ont tendance à changer au gré du vent, mais jamais à la hausse. C'est pourquoi un outil de mailing me semble de plus en plus indispensable afin d'éviter de consacrer trop de temps (avec parfois risque d'erreur).
+J'ai commencé à travailler sur le sujet, l'outil est sur le site AS Nexter, j'ai déjà passé pas mal de temps à le configurer (traduction des messages). Il faut faire une passerelle pour transférer les données de Galette vers phpList, je verrai cela avec Amaury qui connait bien la base de données Galette. Il faudra aussi recenser les listes qui seront utiles : tous ceux ayant adhéré au moins une fois, les adhérents AS à jour, les adhérents Plongée ... En revanche pour envoyer un mail à moins de 50 personnes, Galette restera sans doute toujours plus convivial.
+Cette solution prend un peu de temps à mettre en œuvre, je tâcherai de vous présenter quelque chose d'ici le retour des vacances de Noël
+Amicalement
+De : Marc Labé [mailto:marclabe91@gmail.com] 
+Envoyé : mardi 22 décembre 2015 16:24
+À : GOUTTE Fabien; FROMENT Amaury
+Objet : Re: galette
+Fabien
+Cela correspond bien aux besoins que j'avais identifiés.
+Les mails sont envoyés par php, donc ils sont envoyés de la même façon que par Galette avec la même adresse d'expéditeur. C'est OVH qui prend en charge la distribution.
+Les adresses erronées, si elles sont trop nombreuses, bloquent le mécanisme d'envoi, exactement de la même façon que Galette. Il faut alors une intervention manuelle pour débloquer (chez OVH).
+En revanche, l'outil identifie les adresses invalides pour les mettre de côté. L'outil n'envoie qu'un seul mail par personne même si la liste contient des doublons.
+Le logiciel est peut-être plus permissif que Galette pour les pièces jointes mais de toutes façons il vaut mieux les éviter et faire un lien vers notre site AS Nexter.
+Les mails peuvent être écrits soit en mode texte, soit en mode Html (à privilégier car c'est le seul mode permettant le rattachement d'images ...) , mais ils sont insérés dans un modèle qui rajoute entête et pied de page. Dans le pied de page, il y a des liens pour que les utilisateurs puissent se désinscrire de leur abonnement. Il vaut mieux que quelqu'un puisse se désinscrire plutôt qu'il mette le message en spam (ce qui nous porte préjudice).
+L'envers de la médaille, c'est qu'il te faudra quelques explications pour démarrer, mais c'est encore dans mes cordes.
+Marc
+Voir le doc Guide_emailing_asnexter_indA.docx</t>
+    </r>
+  </si>
+  <si>
+    <t>supprimer les logs galettes pour gagner de la place</t>
+  </si>
+  <si>
+    <t>behavior.inc</t>
+  </si>
+  <si>
+    <t>evol #54</t>
+  </si>
+  <si>
+    <t>Modifier la base de donnée pour rajouter un champ: 
+date du dernier abn pour l'adh afin de le supprimer en fin de saison si &lt;3ans</t>
+  </si>
+  <si>
+    <t>modification de behavior.inc.php pour rajouter: define('GALETTE_SYS_LOG', false); define('GALETTE_MODE', 'PROD'); et define('GALETTE_DISPLAY_ERRORS', false);
+Résultat: on dirait qu'il n'est pas possible d'avoir aucun log, on va en avoir un minimum, notamment lorsqu'on se connecte avec un mauvais mot de passe.
+Voir galette/logs. J'ai effacé manuellement les logs antérieurs</t>
+  </si>
+  <si>
+    <t>N° version plugin changé à V1.1</t>
+  </si>
+  <si>
+    <t>V1.2</t>
+  </si>
+  <si>
+    <t>modifier la validation d'une inscription pour inclure l'écriture de la date dans le champ "Date_dernier_abn" (si ce champ dynamique existe, sinon il faut le créer).
+Fichiers concernés: includes/last_date_subs.php, subs_confirmation.php, confirmation_reset_saison.php
+Version prenant en compte l'evol V1.2 (a paraitre)
+Ca a l'air compliqué, solution de repli: date_modif_adh, dans la class adhérent /function _updateModificationDate()</t>
+  </si>
+  <si>
+    <t>modif bug #34</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1521,7 @@
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1430,8 +1554,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1528,6 +1660,18 @@
         <bgColor indexed="49"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -1621,7 +1765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1656,10 +1800,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1683,12 +1823,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1756,17 +1890,32 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1780,11 +1929,1796 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="267">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1969,6 +3903,70 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="34"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="60"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="49"/>
+          <bgColor indexed="11"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2062,6 +4060,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF9900"/>
     </mruColors>
   </colors>
@@ -2074,24 +4073,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I54" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A1:I54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I56" totalsRowShown="0" headerRowDxfId="247" dataDxfId="246">
+  <autoFilter ref="A1:I56">
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
   </autoFilter>
-  <sortState ref="A27:I54">
-    <sortCondition ref="B1:B54"/>
+  <sortState ref="A2:I54">
+    <sortCondition ref="A1:A54"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="ID2" dataDxfId="26"/>
-    <tableColumn id="10" name="priorité &#10;(1=forte)2" dataDxfId="25"/>
-    <tableColumn id="2" name="Date de remontée du bug" dataDxfId="24"/>
-    <tableColumn id="3" name="Bug/Evol" dataDxfId="23"/>
-    <tableColumn id="4" name="détecteur" dataDxfId="22"/>
-    <tableColumn id="5" name="sujet" dataDxfId="21"/>
-    <tableColumn id="6" name="réponse" dataDxfId="20"/>
-    <tableColumn id="7" name="fait?" dataDxfId="19"/>
-    <tableColumn id="8" name="soldé?" dataDxfId="18"/>
+    <tableColumn id="1" name="ID2" dataDxfId="245"/>
+    <tableColumn id="10" name="priorité &#10;(1=forte)2" dataDxfId="244"/>
+    <tableColumn id="2" name="Date de remontée du bug" dataDxfId="243"/>
+    <tableColumn id="3" name="Bug/Evol" dataDxfId="242"/>
+    <tableColumn id="4" name="détecteur" dataDxfId="241"/>
+    <tableColumn id="5" name="sujet" dataDxfId="240"/>
+    <tableColumn id="6" name="réponse" dataDxfId="239"/>
+    <tableColumn id="7" name="fait?" dataDxfId="238"/>
+    <tableColumn id="8" name="soldé?" dataDxfId="237"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2101,8 +4100,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:C20" totalsRowShown="0">
   <autoFilter ref="A2:C20"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Critères" dataDxfId="17"/>
-    <tableColumn id="2" name="seuils" dataDxfId="16"/>
+    <tableColumn id="1" name="Critères" dataDxfId="236"/>
+    <tableColumn id="2" name="seuils" dataDxfId="235"/>
     <tableColumn id="3" name="effets"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2110,28 +4109,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E2:I3" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E2:I3" totalsRowShown="0" headerRowDxfId="234" dataDxfId="233">
   <autoFilter ref="E2:I3"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Tarifications" dataDxfId="13"/>
-    <tableColumn id="2" name="Tarif 1" dataDxfId="12"/>
-    <tableColumn id="3" name="Tarif 2" dataDxfId="11"/>
-    <tableColumn id="4" name="Tarif 3" dataDxfId="10"/>
-    <tableColumn id="5" name="Tarif 4" dataDxfId="9"/>
+    <tableColumn id="1" name="Tarifications" dataDxfId="232"/>
+    <tableColumn id="2" name="Tarif 1" dataDxfId="231"/>
+    <tableColumn id="3" name="Tarif 2" dataDxfId="230"/>
+    <tableColumn id="4" name="Tarif 3" dataDxfId="229"/>
+    <tableColumn id="5" name="Tarif 4" dataDxfId="228"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="E2:I3" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="E2:I3" totalsRowShown="0" headerRowDxfId="227" dataDxfId="226">
   <autoFilter ref="E2:I3"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Tarifications" dataDxfId="6"/>
-    <tableColumn id="2" name="Tarif 1" dataDxfId="5"/>
-    <tableColumn id="3" name="Tarif 2" dataDxfId="4"/>
-    <tableColumn id="4" name="Tarif 3" dataDxfId="3"/>
-    <tableColumn id="5" name="Tarif 4" dataDxfId="2"/>
+    <tableColumn id="1" name="Tarifications" dataDxfId="225"/>
+    <tableColumn id="2" name="Tarif 1" dataDxfId="224"/>
+    <tableColumn id="3" name="Tarif 2" dataDxfId="223"/>
+    <tableColumn id="4" name="Tarif 3" dataDxfId="222"/>
+    <tableColumn id="5" name="Tarif 4" dataDxfId="221"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2141,8 +4140,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table257" displayName="Table257" ref="A2:C15" totalsRowShown="0">
   <autoFilter ref="A2:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Critères" dataDxfId="1"/>
-    <tableColumn id="2" name="seuils" dataDxfId="0"/>
+    <tableColumn id="1" name="Critères" dataDxfId="220"/>
+    <tableColumn id="2" name="seuils" dataDxfId="219"/>
     <tableColumn id="3" name="effets"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2434,63 +4433,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P63"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="35.81640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="10.7265625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="36.26953125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="6" width="10.7265625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="36.26953125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="10.7265625" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="9" max="9" width="10.7265625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="36.26953125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.26953125" customWidth="1"/>
-    <col min="14" max="15" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.26953125" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="22" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.7109375" style="22" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="36.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="10.7109375" style="22" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="36.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="10.7109375" style="22" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="36.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="10.7109375" style="22" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="36.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="10.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="A1" s="8"/>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="52" t="s">
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="50" t="s">
-        <v>278</v>
-      </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="67" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -2499,1938 +4520,2960 @@
       <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="43" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="24" hidden="1">
       <c r="A3" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="12">
-        <v>41678</v>
-      </c>
-      <c r="D3" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="C3" s="57">
+        <v>41799</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>99</v>
+      </c>
       <c r="E3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:16">
+        <v>21</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="57"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="58"/>
+    </row>
+    <row r="4" spans="1:22" hidden="1">
       <c r="A4" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="12">
-        <v>41784</v>
-      </c>
-      <c r="D4" s="22"/>
+      <c r="C4" s="57">
+        <v>41714</v>
+      </c>
+      <c r="D4" s="58"/>
       <c r="E4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="22"/>
-    </row>
-    <row r="5" spans="1:16" ht="24">
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="57"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="57"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="58"/>
+    </row>
+    <row r="5" spans="1:22" hidden="1">
       <c r="A5" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="12">
-        <v>41700</v>
-      </c>
-      <c r="D5" s="22"/>
+      <c r="C5" s="57">
+        <v>41707</v>
+      </c>
+      <c r="D5" s="58"/>
       <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="12">
-        <v>41854</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="57"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="57"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="57"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="58"/>
+    </row>
+    <row r="6" spans="1:22" hidden="1">
       <c r="A6" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="12">
-        <v>41700</v>
-      </c>
-      <c r="D6" s="13"/>
+      <c r="C6" s="57">
+        <v>41707</v>
+      </c>
+      <c r="D6" s="58"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="57"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="57"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="57"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="58"/>
+    </row>
+    <row r="7" spans="1:22" hidden="1">
       <c r="A7" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="57">
+        <v>41784</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="57"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="57"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="57"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="58"/>
+    </row>
+    <row r="8" spans="1:22" hidden="1">
+      <c r="A8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="57">
         <v>41673</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="12">
-        <v>41868</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="12">
-        <v>41713</v>
-      </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="57">
+        <v>41868</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="57"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="57"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="57"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="58"/>
+    </row>
+    <row r="9" spans="1:22" ht="72" hidden="1">
+      <c r="A9" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="57">
+        <v>41799</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="57">
+        <v>41885</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="57">
+        <v>41900</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="N9" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="57">
+        <v>42212</v>
+      </c>
+      <c r="P9" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q9" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="57"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="58"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="57">
+        <v>41713</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="57">
         <v>41876</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G10" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H10" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I10" s="57">
         <v>41885</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J10" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K10" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L10" s="57">
         <v>41900</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M10" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N10" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O10" s="57">
         <v>42212</v>
       </c>
-      <c r="P8" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="12" t="s">
+      <c r="P10" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q10" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="12">
-        <v>42212</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="12">
-        <v>42212</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="R10" s="57">
+        <v>42288</v>
+      </c>
+      <c r="S10" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="58"/>
+    </row>
+    <row r="11" spans="1:22" ht="24" hidden="1">
       <c r="A11" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="12">
-        <v>41725</v>
-      </c>
-      <c r="D11" s="13"/>
+      <c r="C11" s="57">
+        <v>41799</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>99</v>
+      </c>
       <c r="E11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12" t="s">
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="57">
         <v>41885</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="12" t="s">
+      <c r="J11" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="K11" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="57"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="57">
         <v>42212</v>
       </c>
-      <c r="P11" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="35.5">
+      <c r="P11" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q11" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="57"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="58"/>
+    </row>
+    <row r="12" spans="1:22" hidden="1">
       <c r="A12" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12">
-        <v>41799</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>97</v>
-      </c>
+      <c r="C12" s="57">
+        <v>41725</v>
+      </c>
+      <c r="D12" s="58"/>
       <c r="E12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="57">
+        <v>41885</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="K12" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="57"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="57">
+        <v>42212</v>
+      </c>
+      <c r="P12" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q12" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="57"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="58"/>
+    </row>
+    <row r="13" spans="1:22" ht="60" hidden="1">
       <c r="A13" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="12">
-        <v>41707</v>
-      </c>
-      <c r="D13" s="13"/>
+      <c r="C13" s="57">
+        <v>41799</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>98</v>
+      </c>
       <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="13"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="57">
+        <v>41905</v>
+      </c>
+      <c r="M13" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="N13" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="57"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="57"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="58"/>
+    </row>
+    <row r="14" spans="1:22" hidden="1">
       <c r="A14" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="12">
-        <v>41714</v>
-      </c>
-      <c r="D14" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="C14" s="57">
+        <v>41678</v>
+      </c>
+      <c r="D14" s="58"/>
       <c r="E14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="57"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="57"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="57"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="58"/>
+    </row>
+    <row r="15" spans="1:22" ht="276" hidden="1">
       <c r="A15" s="7" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="12">
-        <v>41854</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="C15" s="57">
+        <v>41799</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>51</v>
+      </c>
       <c r="E15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="12">
-        <v>41870</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="13"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="57"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="57"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="58"/>
+    </row>
+    <row r="16" spans="1:22" ht="24" hidden="1">
       <c r="A16" s="7" t="s">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="C16" s="57">
+        <v>41700</v>
+      </c>
+      <c r="D16" s="59"/>
       <c r="E16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="57">
         <v>41854</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="13"/>
-    </row>
-    <row r="17" spans="1:16" ht="24">
+      <c r="G16" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="57"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="57"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" s="57"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="58"/>
+    </row>
+    <row r="17" spans="1:22" ht="24" hidden="1">
       <c r="A17" s="7" t="s">
         <v>260</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="57">
         <v>41788</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="57">
         <v>41854</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="13"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="H17" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="57"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="57"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="58"/>
+    </row>
+    <row r="18" spans="1:22" ht="108" hidden="1">
       <c r="A18" s="7" t="s">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="C18" s="57">
+        <v>41799</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>52</v>
+      </c>
       <c r="E18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="12">
-        <v>41854</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="13"/>
-    </row>
-    <row r="19" spans="1:16" ht="24">
+        <v>2</v>
+      </c>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="57"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="57"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" s="57"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="58"/>
+    </row>
+    <row r="19" spans="1:22" ht="24" hidden="1">
       <c r="A19" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="57">
         <v>41788</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="57">
         <v>41854</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="13"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="H19" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="57"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="57"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="57"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="58"/>
+    </row>
+    <row r="20" spans="1:22" hidden="1">
       <c r="A20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="12">
-        <v>41799</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>99</v>
+      <c r="C20" s="57">
+        <v>41807</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>120</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="13"/>
-    </row>
-    <row r="21" spans="1:16" ht="58.5">
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="57"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="57"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="58"/>
+    </row>
+    <row r="21" spans="1:22" hidden="1">
       <c r="A21" s="7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="12">
-        <v>41799</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>98</v>
-      </c>
+      <c r="C21" s="57">
+        <v>41700</v>
+      </c>
+      <c r="D21" s="58"/>
       <c r="E21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="12">
-        <v>41905</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="13"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="57"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="57"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="57"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="58"/>
+    </row>
+    <row r="22" spans="1:22" hidden="1">
       <c r="A22" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="12">
-        <v>41784</v>
-      </c>
-      <c r="D22" s="22"/>
+      <c r="C22" s="57">
+        <v>41766</v>
+      </c>
+      <c r="D22" s="58"/>
       <c r="E22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="22"/>
-    </row>
-    <row r="23" spans="1:16" ht="52.5" customHeight="1">
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="57"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="57"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="57"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="58"/>
+    </row>
+    <row r="23" spans="1:22" hidden="1">
       <c r="A23" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="12">
-        <v>41799</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>51</v>
-      </c>
+      <c r="C23" s="57">
+        <v>41784</v>
+      </c>
+      <c r="D23" s="59"/>
       <c r="E23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="13"/>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="F23" s="57"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="57"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="57"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="57"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" s="57"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="59"/>
+    </row>
+    <row r="24" spans="1:22" hidden="1">
       <c r="A24" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="12">
-        <v>41766</v>
-      </c>
-      <c r="D24" s="13"/>
+      <c r="C24" s="57">
+        <v>41784</v>
+      </c>
+      <c r="D24" s="59"/>
       <c r="E24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="13"/>
-    </row>
-    <row r="25" spans="1:16" ht="81.5">
+      <c r="F24" s="57"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="57"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="57"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="57"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="57"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="59"/>
+    </row>
+    <row r="25" spans="1:22" ht="52.5" hidden="1" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="12">
-        <v>41799</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>52</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C25" s="57">
+        <v>41785</v>
+      </c>
+      <c r="D25" s="58"/>
       <c r="E25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="13"/>
-    </row>
-    <row r="26" spans="1:16">
+        <v>21</v>
+      </c>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="57"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R25" s="57"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="58"/>
+    </row>
+    <row r="26" spans="1:22" ht="36" hidden="1">
       <c r="A26" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="12">
-        <v>41807</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>120</v>
+      <c r="C26" s="57">
+        <v>41799</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>97</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="13"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="57"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="57"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="57"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="58"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="7" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="12">
-        <v>41784</v>
-      </c>
-      <c r="D27" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="13"/>
-    </row>
-    <row r="28" spans="1:16" ht="70">
+        <v>21</v>
+      </c>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="57">
+        <v>41889</v>
+      </c>
+      <c r="J27" s="58"/>
+      <c r="K27" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="57">
+        <v>41908</v>
+      </c>
+      <c r="M27" s="58"/>
+      <c r="N27" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="57">
+        <v>42212</v>
+      </c>
+      <c r="P27" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q27" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="57">
+        <v>42288</v>
+      </c>
+      <c r="S27" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="58"/>
+    </row>
+    <row r="28" spans="1:22" ht="24" hidden="1">
       <c r="A28" s="7" t="s">
-        <v>269</v>
+        <v>147</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="12">
-        <v>41799</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>53</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="12">
-        <v>41885</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="12">
-        <v>41900</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O28" s="12">
-        <v>42212</v>
-      </c>
-      <c r="P28" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="F28" s="57">
+        <v>41854</v>
+      </c>
+      <c r="G28" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="57"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="57"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" s="57"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="58"/>
+    </row>
+    <row r="29" spans="1:22" ht="24" hidden="1">
       <c r="A29" s="7" t="s">
-        <v>270</v>
+        <v>143</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="12">
-        <v>41799</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>99</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="12">
-        <v>41885</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O29" s="12">
-        <v>42212</v>
-      </c>
-      <c r="P29" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="F29" s="57">
+        <v>41854</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H29" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="57"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="57"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R29" s="57"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="58"/>
+    </row>
+    <row r="30" spans="1:22" hidden="1">
       <c r="A30" s="7" t="s">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="12">
-        <v>41785</v>
-      </c>
-      <c r="D30" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="C30" s="57">
+        <v>41673</v>
+      </c>
+      <c r="D30" s="58"/>
       <c r="E30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="13"/>
-    </row>
-    <row r="31" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="57"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="57"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="57"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R30" s="57"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="58"/>
+    </row>
+    <row r="31" spans="1:22" ht="156" hidden="1">
       <c r="A31" s="7" t="s">
-        <v>272</v>
+        <v>13</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="12">
-        <v>41707</v>
-      </c>
-      <c r="D31" s="13"/>
+      <c r="C31" s="57">
+        <v>41799</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>54</v>
+      </c>
       <c r="E31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="13"/>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="57"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="57"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R31" s="57"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="58"/>
+    </row>
+    <row r="32" spans="1:22" hidden="1">
       <c r="A32" s="7" t="s">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="57">
+        <v>41673</v>
+      </c>
+      <c r="D32" s="58"/>
+      <c r="E32" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="11" t="s">
+      <c r="I32" s="57">
+        <v>41889</v>
+      </c>
+      <c r="J32" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="K32" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="12">
-        <v>41889</v>
-      </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="12">
-        <v>41908</v>
-      </c>
-      <c r="M32" s="13"/>
-      <c r="N32" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O32" s="12">
-        <v>42212</v>
-      </c>
-      <c r="P32" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="L32" s="57">
+        <v>41900</v>
+      </c>
+      <c r="M32" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="N32" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="57"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R32" s="57"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="58"/>
+    </row>
+    <row r="33" spans="1:22" hidden="1">
       <c r="A33" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="57">
         <v>41673</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="13"/>
-    </row>
-    <row r="34" spans="1:16" ht="127.5">
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="57"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="57"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="57"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="58"/>
+    </row>
+    <row r="34" spans="1:22" hidden="1">
       <c r="A34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="57"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="12">
-        <v>41799</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="11" t="s">
+      <c r="O34" s="57">
+        <v>42212</v>
+      </c>
+      <c r="P34" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q34" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R34" s="57"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="58"/>
+    </row>
+    <row r="35" spans="1:22" hidden="1">
+      <c r="A35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="57"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="57"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="13"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="12">
-        <v>41673</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="13"/>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="O35" s="57">
+        <v>42212</v>
+      </c>
+      <c r="P35" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q35" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R35" s="57"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="58"/>
+    </row>
+    <row r="36" spans="1:22" ht="60" hidden="1">
       <c r="A36" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="12">
-        <v>41673</v>
-      </c>
-      <c r="D36" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="C36" s="57">
+        <v>41809</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>123</v>
+      </c>
       <c r="E36" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="12">
-        <v>41889</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="K36" s="12" t="s">
+      <c r="F36" s="57">
+        <v>41868</v>
+      </c>
+      <c r="G36" s="60"/>
+      <c r="H36" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="57"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="57"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" s="57"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R36" s="57"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="60"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="57"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="57"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" s="57"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="12">
-        <v>41900</v>
-      </c>
-      <c r="M36" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="13"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="7" t="s">
+      <c r="R37" s="57">
+        <v>42288</v>
+      </c>
+      <c r="S37" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="58"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="57"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="57"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38" s="57"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="R38" s="57">
+        <v>42288</v>
+      </c>
+      <c r="S38" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="58"/>
+    </row>
+    <row r="39" spans="1:22" hidden="1">
+      <c r="A39" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="12">
-        <v>41673</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="I37" s="12">
-        <v>41908</v>
-      </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="13"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="12">
-        <v>41728</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="12">
-        <v>41868</v>
-      </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="12">
-        <v>41908</v>
-      </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="13"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="57">
         <v>41673</v>
       </c>
-      <c r="D39" s="13"/>
+      <c r="D39" s="58"/>
       <c r="E39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="57"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="I39" s="57">
+        <v>41908</v>
+      </c>
+      <c r="J39" s="58"/>
+      <c r="K39" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="57"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O39" s="57"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R39" s="57"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="58"/>
+    </row>
+    <row r="40" spans="1:22" hidden="1">
+      <c r="A40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="57">
+        <v>41673</v>
+      </c>
+      <c r="D40" s="58"/>
+      <c r="E40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="57">
         <v>41868</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G40" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H40" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I40" s="57">
         <v>41908</v>
       </c>
-      <c r="J39" s="13"/>
-      <c r="K39" s="12" t="s">
+      <c r="J40" s="58"/>
+      <c r="K40" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L40" s="57">
         <v>41908</v>
       </c>
-      <c r="M39" s="13"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="13"/>
-    </row>
-    <row r="40" spans="1:16" ht="47">
-      <c r="A40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="12">
-        <v>41728</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="12">
-        <v>41868</v>
-      </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="13"/>
-    </row>
-    <row r="41" spans="1:16" ht="58.5">
+      <c r="M40" s="58"/>
+      <c r="N40" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="57"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R40" s="57"/>
+      <c r="S40" s="58"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="58"/>
+    </row>
+    <row r="41" spans="1:22" hidden="1">
       <c r="A41" s="7" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="12">
-        <v>41809</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>123</v>
-      </c>
+      <c r="C41" s="57">
+        <v>41854</v>
+      </c>
+      <c r="D41" s="58"/>
       <c r="E41" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="12">
-        <v>41868</v>
-      </c>
-      <c r="G41" s="23"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="23"/>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="F41" s="57">
+        <v>41870</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="H41" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="57"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="57"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O41" s="57"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="57"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="57"/>
+      <c r="U41" s="57"/>
+      <c r="V41" s="58"/>
+    </row>
+    <row r="42" spans="1:22" hidden="1">
       <c r="A42" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="12">
-        <v>41813</v>
-      </c>
-      <c r="D42" s="13"/>
+      <c r="C42" s="57">
+        <v>41728</v>
+      </c>
+      <c r="D42" s="58"/>
       <c r="E42" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="57">
         <v>41868</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="13"/>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="G42" s="58"/>
+      <c r="H42" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="57">
+        <v>41908</v>
+      </c>
+      <c r="J42" s="58"/>
+      <c r="K42" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="57"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" s="57"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R42" s="57"/>
+      <c r="S42" s="58"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="58"/>
+    </row>
+    <row r="43" spans="1:22" ht="48" hidden="1">
       <c r="A43" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="12">
-        <v>41813</v>
-      </c>
-      <c r="D43" s="13"/>
+      <c r="C43" s="57">
+        <v>41728</v>
+      </c>
+      <c r="D43" s="58" t="s">
+        <v>23</v>
+      </c>
       <c r="E43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="57">
         <v>41868</v>
       </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="12" t="s">
+      <c r="G43" s="58"/>
+      <c r="H43" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="57"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O43" s="57"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" s="57"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="58"/>
+    </row>
+    <row r="44" spans="1:22" ht="24" hidden="1">
+      <c r="A44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="57">
+        <v>41813</v>
+      </c>
+      <c r="D44" s="58"/>
+      <c r="E44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="57">
+        <v>41868</v>
+      </c>
+      <c r="G44" s="58"/>
+      <c r="H44" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I44" s="57">
         <v>41891</v>
       </c>
-      <c r="J43" s="13" t="s">
+      <c r="J44" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="K44" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="12">
+      <c r="L44" s="57">
         <v>41908</v>
       </c>
-      <c r="M43" s="13" t="s">
+      <c r="M44" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="N43" s="12" t="s">
+      <c r="N44" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="12">
+      <c r="O44" s="57">
         <v>42213</v>
       </c>
-      <c r="P43" s="13"/>
-    </row>
-    <row r="45" spans="1:16" ht="35.5">
-      <c r="A45" s="9" t="s">
+      <c r="P44" s="58"/>
+      <c r="Q44" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R44" s="57"/>
+      <c r="S44" s="58"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="58"/>
+    </row>
+    <row r="45" spans="1:22" hidden="1">
+      <c r="A45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="57">
+        <v>41813</v>
+      </c>
+      <c r="D45" s="58"/>
+      <c r="E45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="57">
+        <v>41868</v>
+      </c>
+      <c r="G45" s="58"/>
+      <c r="H45" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="57"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="57"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="57"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="57"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+      <c r="V45" s="58"/>
+    </row>
+    <row r="47" spans="1:22" ht="36.75">
+      <c r="A47" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C47" s="32">
         <v>41813</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D47" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="F45" s="36"/>
-      <c r="G45" s="37"/>
-      <c r="I45" t="s">
-        <v>79</v>
-      </c>
-      <c r="J45" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="L45" t="s">
-        <v>79</v>
-      </c>
-      <c r="M45" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="O45" t="s">
-        <v>79</v>
-      </c>
-      <c r="P45" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="24">
-      <c r="A46" s="9" t="s">
+      <c r="F47" s="32"/>
+      <c r="G47" s="33"/>
+      <c r="I47" t="s">
+        <v>79</v>
+      </c>
+      <c r="J47" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L47" t="s">
+        <v>79</v>
+      </c>
+      <c r="M47" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="O47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P47" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="R47" t="s">
+        <v>79</v>
+      </c>
+      <c r="S47" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="U47" t="s">
+        <v>79</v>
+      </c>
+      <c r="V47" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="24.75">
+      <c r="A48" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C48" s="32">
         <v>41813</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D48" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="37"/>
-      <c r="I46" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="L46" t="s">
-        <v>79</v>
-      </c>
-      <c r="M46" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="O46" t="s">
-        <v>79</v>
-      </c>
-      <c r="P46" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="35.5">
-      <c r="A47" s="9" t="s">
+      <c r="F48" s="32"/>
+      <c r="G48" s="33"/>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+      <c r="J48" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L48" t="s">
+        <v>79</v>
+      </c>
+      <c r="M48" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="O48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P48" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="R48" t="s">
+        <v>79</v>
+      </c>
+      <c r="S48" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="U48" t="s">
+        <v>79</v>
+      </c>
+      <c r="V48" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="36.75">
+      <c r="A49" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47" s="36">
+      <c r="C49" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="32">
         <v>41868</v>
       </c>
-      <c r="G47" s="37" t="s">
+      <c r="G49" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="I47" t="s">
-        <v>79</v>
-      </c>
-      <c r="J47" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="L47" t="s">
-        <v>79</v>
-      </c>
-      <c r="M47" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="O47" t="s">
-        <v>79</v>
-      </c>
-      <c r="P47" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="A48" s="9" t="s">
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+      <c r="J49" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L49" t="s">
+        <v>79</v>
+      </c>
+      <c r="M49" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="O49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P49" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="R49" t="s">
+        <v>79</v>
+      </c>
+      <c r="S49" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="U49" t="s">
+        <v>79</v>
+      </c>
+      <c r="V49" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C50" s="32">
         <v>41813</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D50" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F50" s="32">
         <v>41870</v>
       </c>
-      <c r="G48" s="37" t="s">
+      <c r="G50" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="I48" t="s">
-        <v>79</v>
-      </c>
-      <c r="J48" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="L48" t="s">
-        <v>79</v>
-      </c>
-      <c r="M48" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="O48" t="s">
-        <v>79</v>
-      </c>
-      <c r="P48" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49" s="9" t="s">
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+      <c r="J50" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L50" t="s">
+        <v>79</v>
+      </c>
+      <c r="M50" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="O50" t="s">
+        <v>79</v>
+      </c>
+      <c r="P50" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="R50" t="s">
+        <v>79</v>
+      </c>
+      <c r="S50" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="U50" t="s">
+        <v>79</v>
+      </c>
+      <c r="V50" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" s="36">
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="32">
         <v>41832</v>
       </c>
-      <c r="G49" s="37" t="s">
+      <c r="G51" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="I49" s="36">
+      <c r="I51" s="32">
         <v>41885</v>
       </c>
-      <c r="J49" s="36" t="s">
+      <c r="J51" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="L49" s="36">
+      <c r="L51" s="32">
         <v>41908</v>
       </c>
-      <c r="M49" s="36" t="s">
+      <c r="M51" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="O49" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="P49" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="9" t="s">
+      <c r="O51" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P51" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="R51" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="S51" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="U51" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="V51" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="G50" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="I50" s="36">
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52" s="32">
         <v>41885</v>
       </c>
-      <c r="J50" s="36" t="s">
+      <c r="J52" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="L50" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="M50" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="O50" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="P50" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="29">
-      <c r="A51" s="9" t="s">
+      <c r="L52" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="M52" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="O52" s="32">
+        <v>42213</v>
+      </c>
+      <c r="P52" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="R52" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="S52" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="U52" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="V52" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="30">
+      <c r="A53" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="G51" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="I51" s="36">
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53" s="32">
         <v>41885</v>
       </c>
-      <c r="J51" s="36" t="s">
+      <c r="J53" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="L51" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="M51" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="O51" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="P51" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
-      <c r="A52" s="9" t="s">
+      <c r="L53" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="M53" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="O53" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P53" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="R53" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="S53" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="U53" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="V53" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F52" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="G52" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="I52" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="J52" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="L52" s="36">
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="J54" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L54" s="32">
         <v>41908</v>
       </c>
-      <c r="M52" s="36" t="s">
+      <c r="M54" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="O52" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="P52" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="37"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-      <c r="O53" s="36">
+      <c r="O54" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P54" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="R54" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="S54" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="U54" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="V54" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="J55" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L55" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="M55" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="O55" s="32">
         <v>42213</v>
       </c>
-      <c r="P53" s="36" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="14"/>
-      <c r="B55" s="51" t="s">
+      <c r="P55" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="R55" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="S55" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="U55" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="V55" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I56" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="J56" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L56" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="M56" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="O56" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P56" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="R56" s="32">
+        <v>42511</v>
+      </c>
+      <c r="S56" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="U56" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="V56" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="J57" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="L57" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="M57" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="O57" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P57" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="R57" s="32">
+        <v>42288</v>
+      </c>
+      <c r="S57" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="U57" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="V57" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="12"/>
+      <c r="B59" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="E55" s="51" t="s">
+      <c r="C59" s="50"/>
+      <c r="E59" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F55" s="51"/>
-      <c r="H55" s="51" t="s">
+      <c r="F59" s="50"/>
+      <c r="H59" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="I55" s="51"/>
-      <c r="K55" s="51" t="s">
+      <c r="I59" s="50"/>
+      <c r="K59" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="L55" s="51"/>
-      <c r="N55" s="51" t="s">
+      <c r="L59" s="50"/>
+      <c r="N59" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="O55" s="51"/>
-    </row>
-    <row r="56" spans="1:16" ht="15" customHeight="1">
-      <c r="A56" s="1" t="s">
+      <c r="O59" s="50"/>
+      <c r="Q59" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="R59" s="50"/>
+      <c r="T59" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="U59" s="50"/>
+    </row>
+    <row r="60" spans="1:22" ht="15" customHeight="1">
+      <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="2" t="str">
-        <f>CONCATENATE(B62,"/",B63)</f>
-        <v>39/41</v>
-      </c>
-      <c r="C56" s="3">
-        <f>(COUNTIF(B3:B43,"OK")+COUNTIF(B3:B43,"NOK")+COUNTIF(B3:B43,"NT")+COUNTIF(B3:B43,"NTA"))/COUNTA($A3:$A43)</f>
-        <v>0.95121951219512191</v>
-      </c>
-      <c r="E56" s="2" t="str">
-        <f>CONCATENATE(E62,"/",E63)</f>
-        <v>39/41</v>
-      </c>
-      <c r="F56" s="3">
-        <f>(COUNTIF(E3:E43,"OK")+COUNTIF(E3:E43,"NOK")+COUNTIF(E3:E43,"NT")+COUNTIF(E3:E43,"NTA"))/COUNTA($A3:$A43)</f>
-        <v>0.95121951219512191</v>
-      </c>
-      <c r="H56" s="2" t="str">
-        <f>CONCATENATE(H62,"/",H63)</f>
-        <v>10/41</v>
-      </c>
-      <c r="I56" s="3">
-        <f>(COUNTIF(H3:H43,"OK")+COUNTIF(H3:H43,"NOK")+COUNTIF(H3:H43,"NT")+COUNTIF(H3:H43,"NTA"))/COUNTA($A3:$A43)</f>
-        <v>0.24390243902439024</v>
-      </c>
-      <c r="K56" s="2" t="str">
-        <f>CONCATENATE(K62,"/",K63)</f>
-        <v>7/41</v>
-      </c>
-      <c r="L56" s="3">
-        <f>(COUNTIF(K3:K43,"OK")+COUNTIF(K3:K43,"NOK")+COUNTIF(K3:K43,"NT")+COUNTIF(K3:K43,"NTA"))/COUNTA($A3:$A43)</f>
-        <v>0.17073170731707318</v>
-      </c>
-      <c r="N56" s="2" t="str">
-        <f>CONCATENATE(N62,"/",N63)</f>
-        <v>8/41</v>
-      </c>
-      <c r="O56" s="3">
-        <f>(COUNTIF(N3:N43,"OK")+COUNTIF(N3:N43,"NOK")+COUNTIF(N3:N43,"NT")+COUNTIF(N3:N43,"NTA"))/COUNTA($A3:$A43)</f>
-        <v>0.1951219512195122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="A57" s="1" t="s">
+      <c r="B60" s="2" t="str">
+        <f>CONCATENATE(B66,"/",B67)</f>
+        <v>43/43</v>
+      </c>
+      <c r="C60" s="3">
+        <f>(COUNTIF(B3:B45,"OK")+COUNTIF(B3:B45,"NOK")+COUNTIF(B3:B45,"NT")+COUNTIF(B3:B45,"NTA"))/COUNTA($A3:$A45)</f>
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f>CONCATENATE(E66,"/",E67)</f>
+        <v>43/43</v>
+      </c>
+      <c r="F60" s="3">
+        <f>(COUNTIF(E3:E45,"OK")+COUNTIF(E3:E45,"NOK")+COUNTIF(E3:E45,"NT")+COUNTIF(E3:E45,"NTA"))/COUNTA($A3:$A45)</f>
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="str">
+        <f>CONCATENATE(H66,"/",H67)</f>
+        <v>43/43</v>
+      </c>
+      <c r="I60" s="3">
+        <f>(COUNTIF(H3:H45,"OK")+COUNTIF(H3:H45,"NOK")+COUNTIF(H3:H45,"NT")+COUNTIF(H3:H45,"NTA"))/COUNTA($A3:$A45)</f>
+        <v>1</v>
+      </c>
+      <c r="K60" s="2" t="str">
+        <f>CONCATENATE(K66,"/",K67)</f>
+        <v>43/43</v>
+      </c>
+      <c r="L60" s="3">
+        <f>(COUNTIF(K3:K45,"OK")+COUNTIF(K3:K45,"NOK")+COUNTIF(K3:K45,"NT")+COUNTIF(K3:K45,"NTA"))/COUNTA($A3:$A45)</f>
+        <v>1</v>
+      </c>
+      <c r="N60" s="2" t="str">
+        <f>CONCATENATE(N66,"/",N67)</f>
+        <v>43/43</v>
+      </c>
+      <c r="O60" s="3">
+        <f>(COUNTIF(N3:N45,"OK")+COUNTIF(N3:N45,"NOK")+COUNTIF(N3:N45,"NT")+COUNTIF(N3:N45,"NTA"))/COUNTA($A3:$A45)</f>
+        <v>1</v>
+      </c>
+      <c r="Q60" s="2" t="str">
+        <f>CONCATENATE(Q66,"/",Q67)</f>
+        <v>43/43</v>
+      </c>
+      <c r="R60" s="3">
+        <f>(COUNTIF(Q3:Q45,"OK")+COUNTIF(Q3:Q45,"NOK")+COUNTIF(Q3:Q45,"NT")+COUNTIF(Q3:Q45,"NTA"))/COUNTA($A3:$A45)</f>
+        <v>1</v>
+      </c>
+      <c r="T60" s="2" t="str">
+        <f>CONCATENATE(T66,"/",T67)</f>
+        <v>0/43</v>
+      </c>
+      <c r="U60" s="3">
+        <f>(COUNTIF(T3:T45,"OK")+COUNTIF(T3:T45,"NOK")+COUNTIF(T3:T45,"NT")+COUNTIF(T3:T45,"NTA"))/COUNTA($A3:$A45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="4">
-        <f>COUNTIF(B3:B43,"OK")</f>
+      <c r="B61" s="4">
+        <f>COUNTIF(B3:B45,"OK")</f>
         <v>37</v>
       </c>
-      <c r="C57" s="5">
-        <f>B57/COUNTA($A3:$A43)</f>
-        <v>0.90243902439024393</v>
-      </c>
-      <c r="E57" s="4">
-        <f>COUNTIF(E3:E43,"OK")</f>
+      <c r="C61" s="5">
+        <f>B61/COUNTA($A3:$A45)</f>
+        <v>0.86046511627906974</v>
+      </c>
+      <c r="E61" s="4">
+        <f>COUNTIF(E3:E45,"OK")</f>
         <v>37</v>
       </c>
-      <c r="F57" s="5">
-        <f>E57/COUNTA($A3:$A43)</f>
-        <v>0.90243902439024393</v>
-      </c>
-      <c r="H57" s="4">
-        <f>COUNTIF(H3:H43,"OK")</f>
+      <c r="F61" s="5">
+        <f>E61/COUNTA($A3:$A45)</f>
+        <v>0.86046511627906974</v>
+      </c>
+      <c r="H61" s="4">
+        <f>COUNTIF(H3:H45,"OK")</f>
         <v>7</v>
       </c>
-      <c r="I57" s="5">
-        <f>H57/COUNTA($A3:$A43)</f>
-        <v>0.17073170731707318</v>
-      </c>
-      <c r="K57" s="4">
-        <f>COUNTIF(K3:K43,"OK")</f>
+      <c r="I61" s="5">
+        <f>H61/COUNTA($A3:$A45)</f>
+        <v>0.16279069767441862</v>
+      </c>
+      <c r="K61" s="4">
+        <f>COUNTIF(K3:K45,"OK")</f>
         <v>6</v>
       </c>
-      <c r="L57" s="5">
-        <f>K57/COUNTA($A3:$A43)</f>
-        <v>0.14634146341463414</v>
-      </c>
-      <c r="N57" s="4">
-        <f>COUNTIF(N3:N43,"OK")</f>
+      <c r="L61" s="5">
+        <f>K61/COUNTA($A3:$A45)</f>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="N61" s="4">
+        <f>COUNTIF(N3:N45,"OK")</f>
         <v>8</v>
       </c>
-      <c r="O57" s="5">
-        <f>N57/COUNTA($A3:$A43)</f>
-        <v>0.1951219512195122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="1" t="s">
+      <c r="O61" s="5">
+        <f>N61/COUNTA($A3:$A45)</f>
+        <v>0.18604651162790697</v>
+      </c>
+      <c r="Q61" s="4">
+        <f>COUNTIF(Q3:Q45,"OK")</f>
         <v>4</v>
       </c>
-      <c r="B58" s="15">
-        <f>COUNTIF(B3:B43,"NOK")</f>
+      <c r="R61" s="5">
+        <f>Q61/COUNTA($A3:$A45)</f>
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="T61" s="4">
+        <f>COUNTIF(T3:T45,"OK")</f>
         <v>0</v>
       </c>
-      <c r="C58" s="16">
-        <f>B58/COUNTA($A3:$A43)</f>
+      <c r="U61" s="5">
+        <f>T61/COUNTA($A3:$A45)</f>
         <v>0</v>
       </c>
-      <c r="E58" s="15">
-        <f>COUNTIF(E3:E43,"NOK")</f>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="13">
+        <f>COUNTIF(B3:B45,"NOK")</f>
         <v>0</v>
       </c>
-      <c r="F58" s="16">
-        <f>E58/COUNTA($A3:$A43)</f>
+      <c r="C62" s="14">
+        <f>B62/COUNTA($A3:$A45)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="15">
-        <f>COUNTIF(H3:H43,"NOK")</f>
+      <c r="E62" s="13">
+        <f>COUNTIF(E3:E45,"NOK")</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="14">
+        <f>E62/COUNTA($A3:$A45)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="13">
+        <f>COUNTIF(H3:H45,"NOK")</f>
         <v>1</v>
       </c>
-      <c r="I58" s="16">
-        <f>H58/COUNTA($A3:$A43)</f>
-        <v>2.4390243902439025E-2</v>
-      </c>
-      <c r="K58" s="15">
-        <f>COUNTIF(K3:K43,"NOK")</f>
+      <c r="I62" s="14">
+        <f>H62/COUNTA($A3:$A45)</f>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="K62" s="13">
+        <f>COUNTIF(K3:K45,"NOK")</f>
         <v>0</v>
       </c>
-      <c r="L58" s="16">
-        <f>K58/COUNTA($A3:$A43)</f>
+      <c r="L62" s="14">
+        <f>K62/COUNTA($A3:$A45)</f>
         <v>0</v>
       </c>
-      <c r="N58" s="15">
-        <f>COUNTIF(N3:N43,"NOK")</f>
+      <c r="N62" s="13">
+        <f>COUNTIF(N3:N45,"NOK")</f>
         <v>0</v>
       </c>
-      <c r="O58" s="16">
-        <f>N58/COUNTA($A3:$A43)</f>
+      <c r="O62" s="14">
+        <f>N62/COUNTA($A3:$A45)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="17">
-        <f>COUNTIF(B3:B43,"NT")</f>
+      <c r="Q62" s="13">
+        <f>COUNTIF(Q3:Q45,"NOK")</f>
         <v>0</v>
       </c>
-      <c r="C59" s="18">
-        <f>B59/COUNTA($A3:$A43)</f>
+      <c r="R62" s="14">
+        <f>Q62/COUNTA($A3:$A45)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="17">
-        <f>COUNTIF(E3:E43,"NT")</f>
+      <c r="T62" s="13">
+        <f>COUNTIF(T3:T45,"NOK")</f>
+        <v>0</v>
+      </c>
+      <c r="U62" s="14">
+        <f>T62/COUNTA($A3:$A45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="15">
+        <f>COUNTIF(B3:B45,"NT")</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="16">
+        <f>B63/COUNTA($A3:$A45)</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="15">
+        <f>COUNTIF(E3:E45,"NT")</f>
         <v>2</v>
       </c>
-      <c r="F59" s="18">
-        <f>E59/COUNTA($A3:$A43)</f>
-        <v>4.878048780487805E-2</v>
-      </c>
-      <c r="H59" s="17">
-        <f>COUNTIF(H3:H43,"NT")</f>
+      <c r="F63" s="16">
+        <f>E63/COUNTA($A3:$A45)</f>
+        <v>4.6511627906976744E-2</v>
+      </c>
+      <c r="H63" s="15">
+        <f>COUNTIF(H3:H45,"NT")</f>
+        <v>31</v>
+      </c>
+      <c r="I63" s="16">
+        <f>H63/COUNTA($A3:$A45)</f>
+        <v>0.72093023255813948</v>
+      </c>
+      <c r="K63" s="15">
+        <f>COUNTIF(K3:K45,"NT")</f>
+        <v>33</v>
+      </c>
+      <c r="L63" s="16">
+        <f>K63/COUNTA($A3:$A45)</f>
+        <v>0.76744186046511631</v>
+      </c>
+      <c r="N63" s="15">
+        <f>COUNTIF(N3:N45,"NT")</f>
+        <v>33</v>
+      </c>
+      <c r="O63" s="16">
+        <f>N63/COUNTA($A3:$A45)</f>
+        <v>0.76744186046511631</v>
+      </c>
+      <c r="Q63" s="15">
+        <f>COUNTIF(Q3:Q45,"NT")</f>
+        <v>39</v>
+      </c>
+      <c r="R63" s="16">
+        <f>Q63/COUNTA($A3:$A45)</f>
+        <v>0.90697674418604646</v>
+      </c>
+      <c r="T63" s="15">
+        <f>COUNTIF(T3:T45,"NT")</f>
+        <v>0</v>
+      </c>
+      <c r="U63" s="16">
+        <f>T63/COUNTA($A3:$A45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="17">
+        <f>COUNTIF(B3:B45,"NTA")</f>
+        <v>6</v>
+      </c>
+      <c r="C64" s="18">
+        <f>B64/COUNTA($A3:$A45)</f>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="E64" s="17">
+        <f>COUNTIF(E3:E45,"NTA")</f>
+        <v>4</v>
+      </c>
+      <c r="F64" s="18">
+        <f>E64/COUNTA($A3:$A45)</f>
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="H64" s="17">
+        <f>COUNTIF(H3:H45,"NTA")</f>
+        <v>4</v>
+      </c>
+      <c r="I64" s="18">
+        <f>H64/COUNTA($A3:$A45)</f>
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="K64" s="17">
+        <f>COUNTIF(K3:K45,"NTA")</f>
+        <v>4</v>
+      </c>
+      <c r="L64" s="18">
+        <f>K64/COUNTA($A3:$A45)</f>
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="N64" s="17">
+        <f>COUNTIF(N3:N45,"NTA")</f>
         <v>2</v>
       </c>
-      <c r="I59" s="18">
-        <f>H59/COUNTA($A3:$A43)</f>
-        <v>4.878048780487805E-2</v>
-      </c>
-      <c r="K59" s="17">
-        <f>COUNTIF(K3:K43,"NT")</f>
-        <v>1</v>
-      </c>
-      <c r="L59" s="18">
-        <f>K59/COUNTA($A3:$A43)</f>
-        <v>2.4390243902439025E-2</v>
-      </c>
-      <c r="N59" s="17">
-        <f>COUNTIF(N3:N43,"NT")</f>
+      <c r="O64" s="18">
+        <f>N64/COUNTA($A3:$A45)</f>
+        <v>4.6511627906976744E-2</v>
+      </c>
+      <c r="Q64" s="17">
+        <f>COUNTIF(Q3:Q45,"NTA")</f>
         <v>0</v>
       </c>
-      <c r="O59" s="18">
-        <f>N59/COUNTA($A3:$A43)</f>
+      <c r="R64" s="18">
+        <f>Q64/COUNTA($A3:$A45)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" s="19">
-        <f>COUNTIF(B3:B43,"NTA")</f>
-        <v>2</v>
-      </c>
-      <c r="C60" s="20">
-        <f>B60/COUNTA($A3:$A43)</f>
-        <v>4.878048780487805E-2</v>
-      </c>
-      <c r="E60" s="19">
-        <f>COUNTIF(E3:E43,"NTA")</f>
+      <c r="T64" s="17">
+        <f>COUNTIF(T3:T45,"NTA")</f>
         <v>0</v>
       </c>
-      <c r="F60" s="20">
-        <f>E60/COUNTA($A3:$A43)</f>
+      <c r="U64" s="18">
+        <f>T64/COUNTA($A3:$A45)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="19">
-        <f>COUNTIF(H3:H43,"NTA")</f>
+    </row>
+    <row r="66" spans="2:20">
+      <c r="B66" s="12">
+        <f>(COUNTIF(B3:B45,"OK")+COUNTIF(B3:B45,"NOK")+COUNTIF(B3:B45,"NT")+COUNTIF(B3:B45,"NTA"))</f>
+        <v>43</v>
+      </c>
+      <c r="E66" s="12">
+        <f>(COUNTIF(E3:E45,"OK")+COUNTIF(E3:E45,"NOK")+COUNTIF(E3:E45,"NT")+COUNTIF(E3:E45,"NTA"))</f>
+        <v>43</v>
+      </c>
+      <c r="H66" s="12">
+        <f>(COUNTIF(H3:H45,"OK")+COUNTIF(H3:H45,"NOK")+COUNTIF(H3:H45,"NT")+COUNTIF(H3:H45,"NTA"))</f>
+        <v>43</v>
+      </c>
+      <c r="K66" s="12">
+        <f>(COUNTIF(K3:K45,"OK")+COUNTIF(K3:K45,"NOK")+COUNTIF(K3:K45,"NT")+COUNTIF(K3:K45,"NTA"))</f>
+        <v>43</v>
+      </c>
+      <c r="N66" s="12">
+        <f>(COUNTIF(N3:N45,"OK")+COUNTIF(N3:N45,"NOK")+COUNTIF(N3:N45,"NT")+COUNTIF(N3:N45,"NTA"))</f>
+        <v>43</v>
+      </c>
+      <c r="Q66" s="12">
+        <f>(COUNTIF(Q3:Q45,"OK")+COUNTIF(Q3:Q45,"NOK")+COUNTIF(Q3:Q45,"NT")+COUNTIF(Q3:Q45,"NTA"))</f>
+        <v>43</v>
+      </c>
+      <c r="T66" s="19">
+        <f>(COUNTIF(T3:T45,"OK")+COUNTIF(T3:T45,"NOK")+COUNTIF(T3:T45,"NT")+COUNTIF(T3:T45,"NTA"))</f>
         <v>0</v>
       </c>
-      <c r="I60" s="20">
-        <f>H60/COUNTA($A3:$A43)</f>
-        <v>0</v>
-      </c>
-      <c r="K60" s="19">
-        <f>COUNTIF(K3:K43,"NTA")</f>
-        <v>0</v>
-      </c>
-      <c r="L60" s="20">
-        <f>K60/COUNTA($A3:$A43)</f>
-        <v>0</v>
-      </c>
-      <c r="N60" s="19">
-        <f>COUNTIF(N3:N43,"NTA")</f>
-        <v>0</v>
-      </c>
-      <c r="O60" s="20">
-        <f>N60/COUNTA($A3:$A43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="B62" s="21">
-        <f>(COUNTIF(B3:B43,"OK")+COUNTIF(B3:B43,"NOK")+COUNTIF(B3:B43,"NT")+COUNTIF(B3:B43,"NTA"))</f>
-        <v>39</v>
-      </c>
-      <c r="E62" s="21">
-        <f>(COUNTIF(E3:E43,"OK")+COUNTIF(E3:E43,"NOK")+COUNTIF(E3:E43,"NT")+COUNTIF(E3:E43,"NTA"))</f>
-        <v>39</v>
-      </c>
-      <c r="H62" s="21">
-        <f>(COUNTIF(H3:H43,"OK")+COUNTIF(H3:H43,"NOK")+COUNTIF(H3:H43,"NT")+COUNTIF(H3:H43,"NTA"))</f>
-        <v>10</v>
-      </c>
-      <c r="K62" s="21">
-        <f>(COUNTIF(K3:K43,"OK")+COUNTIF(K3:K43,"NOK")+COUNTIF(K3:K43,"NT")+COUNTIF(K3:K43,"NTA"))</f>
-        <v>7</v>
-      </c>
-      <c r="N62" s="21">
-        <f>(COUNTIF(N3:N43,"OK")+COUNTIF(N3:N43,"NOK")+COUNTIF(N3:N43,"NT")+COUNTIF(N3:N43,"NTA"))</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="B63" s="21">
-        <f>COUNTA($A3:$A43)</f>
-        <v>41</v>
-      </c>
-      <c r="E63" s="21">
-        <f>COUNTA($A3:$A43)</f>
-        <v>41</v>
-      </c>
-      <c r="H63" s="21">
-        <f>COUNTA($A3:$A43)</f>
-        <v>41</v>
-      </c>
-      <c r="K63" s="21">
-        <f>COUNTA($A3:$A43)</f>
-        <v>41</v>
-      </c>
-      <c r="N63" s="21">
-        <f>COUNTA($A3:$A43)</f>
-        <v>41</v>
+    </row>
+    <row r="67" spans="2:20">
+      <c r="B67" s="12">
+        <f>COUNTA($A3:$A45)</f>
+        <v>43</v>
+      </c>
+      <c r="E67" s="12">
+        <f>COUNTA($A3:$A45)</f>
+        <v>43</v>
+      </c>
+      <c r="H67" s="12">
+        <f>COUNTA($A3:$A45)</f>
+        <v>43</v>
+      </c>
+      <c r="K67" s="12">
+        <f>COUNTA($A3:$A45)</f>
+        <v>43</v>
+      </c>
+      <c r="N67" s="12">
+        <f>COUNTA($A3:$A45)</f>
+        <v>43</v>
+      </c>
+      <c r="Q67" s="12">
+        <f>COUNTA($A3:$A45)</f>
+        <v>43</v>
+      </c>
+      <c r="T67" s="19">
+        <f>COUNTA($A3:$A45)</f>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <autoFilter ref="A2:V45">
+    <filterColumn colId="18">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState ref="A3:V45">
+      <sortCondition ref="A2:A45"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="14">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q59:R59"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="N59:O59"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:B43">
-    <cfRule type="cellIs" dxfId="39" priority="39" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B3:B45">
+    <cfRule type="cellIs" dxfId="266" priority="51" stopIfTrue="1" operator="equal">
       <formula>"NTA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="52" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="53" stopIfTrue="1" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56 B57:C57 E54 H3:H44 F3:F54 H54:I54 J45:J53 E3:E46 K3:K44 K28:L28 K8:L10 K54:L54 M45:M53 L3:L46 I3:I46">
-    <cfRule type="cellIs" dxfId="36" priority="34" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A60 B61:C61 E58 H58:I58 K30:L30 K8:L10 K58:L58 L3:L48 I3:I48 F3:F58 J47:J57 M47:M57 E3:E48 H3:H46 K3:K46">
+    <cfRule type="cellIs" dxfId="263" priority="46" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="47" stopIfTrue="1" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M47:M53 J47:J53 E54 H54 H3:H44 I45:I46 F47:F53 E3:E46 K54 K3:K44 L45:L46">
-    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E58 H58 I47:I48 K58 L47:L48 J49:J57 F49:F57 M49:M57 E3:E48 H3:H46 K3:K46">
+    <cfRule type="cellIs" dxfId="261" priority="43" stopIfTrue="1" operator="equal">
       <formula>"NTA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="44" stopIfTrue="1" operator="equal">
       <formula>"NT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N54:O54 P45:P53 N28:O28 N3:N44 O3:O46">
-    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N58:O58 P47:P57 N30:O30 O3:O48 N3:N46">
+    <cfRule type="cellIs" dxfId="259" priority="15" stopIfTrue="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="16" stopIfTrue="1" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P47:P53 N54 O45:O46 N3:N44">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="P49:P57 N58 O47:O48 N3:N46">
+    <cfRule type="cellIs" dxfId="257" priority="13" stopIfTrue="1" operator="equal">
       <formula>"NTA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="14" stopIfTrue="1" operator="equal">
       <formula>"NT"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B43 E3:E43">
-      <formula1>$J$29:$J$35</formula1>
-    </dataValidation>
-  </dataValidations>
+  <conditionalFormatting sqref="Q58:R58 S47:S57 R31:R48 Q3:R30 Q28:Q46">
+    <cfRule type="cellIs" dxfId="255" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S49:S57 Q58 R47:R48 Q3:Q46">
+    <cfRule type="cellIs" dxfId="253" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"NTA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"NT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T58:U58 V47:V57 T31:T46 U31:U48 T3:U30">
+    <cfRule type="cellIs" dxfId="251" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V49:V57 T58 U47:U48 T3:T46">
+    <cfRule type="cellIs" dxfId="249" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"NTA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"NT"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:B35">
+    <cfRule type="cellIs" dxfId="215" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:B35">
+    <cfRule type="cellIs" dxfId="211" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"NTA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"NT"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4438,1525 +7481,1611 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="7" style="25" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="11.1796875" style="25" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="13" style="25" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="11.1796875" style="25" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="12" style="25" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="77.7265625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="62" style="24" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="25"/>
+    <col min="1" max="1" width="7" style="21" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="18.85546875" style="21" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="13" style="21" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="11.140625" style="21" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="12" style="21" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="77.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="62" style="20" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" ht="30">
+      <c r="A1" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="290">
-      <c r="A2" s="42">
+    <row r="2" spans="1:9" ht="315">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="38">
         <v>1</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="275.5">
-      <c r="A3" s="42">
+    <row r="3" spans="1:9" ht="285">
+      <c r="A3" s="38">
         <v>2</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="38">
         <v>1</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="58">
-      <c r="A4" s="42">
+    <row r="4" spans="1:9" ht="60">
+      <c r="A4" s="38">
         <v>3</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="38">
         <v>1</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="72.5">
-      <c r="A5" s="42">
+    <row r="5" spans="1:9" ht="75">
+      <c r="A5" s="38">
         <v>4</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="38">
         <v>1</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="58">
-      <c r="A6" s="42">
+    <row r="6" spans="1:9" ht="60">
+      <c r="A6" s="38">
         <v>5</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="145">
-      <c r="A7" s="42">
+    <row r="7" spans="1:9" ht="150">
+      <c r="A7" s="38">
         <v>6</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="174">
-      <c r="A8" s="42">
+    <row r="8" spans="1:9" ht="195">
+      <c r="A8" s="38">
         <v>7</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="38">
         <v>1</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="39">
         <v>41847</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="38" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="42">
+      <c r="A9" s="38">
         <v>8</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="45">
+      <c r="B9" s="38"/>
+      <c r="C9" s="41">
         <v>41759</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29">
-      <c r="A10" s="42">
+    <row r="10" spans="1:9" ht="45">
+      <c r="A10" s="38">
         <v>9</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="38">
         <v>4</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="39">
         <v>41767</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="58">
-      <c r="A11" s="42">
+    <row r="11" spans="1:9" ht="75">
+      <c r="A11" s="38">
         <v>10</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43">
+      <c r="B11" s="38"/>
+      <c r="C11" s="39">
         <v>41759</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="58">
-      <c r="A12" s="42">
+    <row r="12" spans="1:9" ht="60">
+      <c r="A12" s="38">
         <v>11</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="38">
         <v>2</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="39">
         <v>41759</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="42">
+    <row r="13" spans="1:9" ht="30">
+      <c r="A13" s="38">
         <v>12</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="38">
         <v>2</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="41">
         <v>41766</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="38" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="42">
+      <c r="A14" s="38">
         <v>13</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="38">
         <v>2</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="41">
         <v>41773</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="42" t="s">
+      <c r="G14" s="40"/>
+      <c r="H14" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="362.5">
-      <c r="A15" s="42">
+    <row r="15" spans="1:9" ht="375">
+      <c r="A15" s="38">
         <v>14</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="38">
         <v>1</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="39">
         <v>41780</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="58">
-      <c r="A16" s="42">
+    <row r="16" spans="1:9" ht="60">
+      <c r="A16" s="38">
         <v>15</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="38">
         <v>2</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="41">
         <v>41852</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="29">
-      <c r="A17" s="42">
-        <v>16</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="42" t="s">
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="38">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="29">
-      <c r="A18" s="42">
+    <row r="18" spans="1:9" ht="30">
+      <c r="A18" s="38">
         <v>17</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="38">
         <v>1</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="39">
         <v>41813</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="58">
-      <c r="A19" s="42">
+    <row r="19" spans="1:9" ht="60">
+      <c r="A19" s="38">
         <v>18</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="38">
         <v>1</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="41">
         <v>41832</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="101.5">
-      <c r="A20" s="42">
+    <row r="20" spans="1:9" ht="105">
+      <c r="A20" s="38">
         <v>19</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="38">
         <v>1</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="41">
         <v>41844</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="H20" s="42" t="s">
+      <c r="H20" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="43.5">
-      <c r="A21" s="42">
+    <row r="21" spans="1:9" ht="45">
+      <c r="A21" s="38">
         <v>20</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="38">
         <v>2</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="39">
         <v>41852</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="42" t="s">
+      <c r="H21" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="29">
-      <c r="A22" s="42">
+    <row r="22" spans="1:9" ht="30">
+      <c r="A22" s="38">
         <v>21</v>
       </c>
-      <c r="B22" s="42">
+      <c r="B22" s="38">
         <v>2</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="41">
         <v>41792</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="H22" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="203">
-      <c r="A23" s="42">
+    <row r="23" spans="1:9" ht="225">
+      <c r="A23" s="38">
         <v>22</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="38">
         <v>2</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="H23" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="43.5">
-      <c r="A24" s="42">
+    <row r="24" spans="1:9" ht="45">
+      <c r="A24" s="38">
         <v>23</v>
       </c>
-      <c r="B24" s="42">
+      <c r="B24" s="38">
         <v>2</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="41">
         <v>41847</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="38" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="42">
+      <c r="A25" s="38">
         <v>24</v>
       </c>
-      <c r="B25" s="42">
+      <c r="B25" s="38">
         <v>3</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="39">
         <v>41851</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I25" s="42" t="s">
+      <c r="I25" s="38" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="42">
+      <c r="A26" s="38">
         <v>25</v>
       </c>
-      <c r="B26" s="42">
+      <c r="B26" s="38">
         <v>3</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="41">
         <v>41852</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="H26" s="42" t="s">
+      <c r="H26" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="42" t="s">
+      <c r="I26" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="29">
-      <c r="A27" s="49">
+    <row r="27" spans="1:9" ht="150">
+      <c r="A27" s="38">
+        <v>26</v>
+      </c>
+      <c r="B27" s="38">
+        <v>3</v>
+      </c>
+      <c r="C27" s="39">
+        <v>41843</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="45">
+      <c r="A28" s="38">
+        <v>27</v>
+      </c>
+      <c r="B28" s="38">
+        <v>1</v>
+      </c>
+      <c r="C28" s="41">
+        <v>41852</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="150">
+      <c r="A29" s="37">
+        <v>28</v>
+      </c>
+      <c r="B29" s="38">
+        <v>1</v>
+      </c>
+      <c r="C29" s="41">
+        <v>41868</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30">
+      <c r="A30" s="37">
+        <v>29</v>
+      </c>
+      <c r="B30" s="38">
+        <v>1</v>
+      </c>
+      <c r="C30" s="41">
+        <v>41852</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45">
+      <c r="A31" s="37">
+        <v>30</v>
+      </c>
+      <c r="B31" s="38">
+        <v>3</v>
+      </c>
+      <c r="C31" s="41">
+        <v>41876</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="150">
+      <c r="A32" s="37">
+        <v>31</v>
+      </c>
+      <c r="B32" s="38">
+        <v>1</v>
+      </c>
+      <c r="C32" s="41">
+        <v>41876</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="G32" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="75">
+      <c r="A33" s="37">
+        <v>32</v>
+      </c>
+      <c r="B33" s="38">
+        <v>1</v>
+      </c>
+      <c r="C33" s="41">
+        <v>41879</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="105">
+      <c r="A34" s="37">
+        <v>33</v>
+      </c>
+      <c r="B34" s="38">
+        <v>2</v>
+      </c>
+      <c r="C34" s="41">
+        <v>41879</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="165">
+      <c r="A35" s="37">
+        <v>34</v>
+      </c>
+      <c r="B35" s="38">
+        <v>1</v>
+      </c>
+      <c r="C35" s="41">
+        <v>41878</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="120">
+      <c r="A36" s="37">
+        <v>35</v>
+      </c>
+      <c r="B36" s="38">
+        <v>1</v>
+      </c>
+      <c r="C36" s="41">
+        <v>41878</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="G36" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="120">
+      <c r="A37" s="37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="38">
+        <v>1</v>
+      </c>
+      <c r="C37" s="41">
+        <v>41883</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I37" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45">
+      <c r="A38" s="37">
+        <v>37</v>
+      </c>
+      <c r="B38" s="38">
+        <v>2</v>
+      </c>
+      <c r="C38" s="41">
+        <v>41883</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="60">
+      <c r="A39" s="37">
+        <v>38</v>
+      </c>
+      <c r="B39" s="38">
+        <v>1</v>
+      </c>
+      <c r="C39" s="41">
+        <v>41883</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="240">
+      <c r="A40" s="37">
+        <v>39</v>
+      </c>
+      <c r="B40" s="38">
+        <v>3</v>
+      </c>
+      <c r="C40" s="41">
+        <v>41884</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="90">
+      <c r="A41" s="37">
+        <v>40</v>
+      </c>
+      <c r="B41" s="38">
+        <v>1</v>
+      </c>
+      <c r="C41" s="41">
+        <v>41891</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="225">
+      <c r="A42" s="37">
+        <v>41</v>
+      </c>
+      <c r="B42" s="38">
+        <v>3</v>
+      </c>
+      <c r="C42" s="41">
+        <v>41892</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="G42" s="40"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+    </row>
+    <row r="43" spans="1:9" ht="75">
+      <c r="A43" s="37">
+        <v>42</v>
+      </c>
+      <c r="B43" s="38">
+        <v>1</v>
+      </c>
+      <c r="C43" s="41">
+        <v>41896</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="60">
+      <c r="A44" s="37">
+        <v>43</v>
+      </c>
+      <c r="B44" s="38">
+        <v>2</v>
+      </c>
+      <c r="C44" s="41">
+        <v>41893</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="G44" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I44" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="165">
+      <c r="A45" s="37">
+        <v>44</v>
+      </c>
+      <c r="B45" s="38">
+        <v>1</v>
+      </c>
+      <c r="C45" s="41">
+        <v>41899</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="30">
+      <c r="A46" s="37">
         <v>45</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B46" s="38">
         <v>1</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C46" s="41">
         <v>41836</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D46" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E46" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F46" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G46" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-    </row>
-    <row r="28" spans="1:9" ht="43.5">
-      <c r="A28" s="42">
-        <v>27</v>
-      </c>
-      <c r="B28" s="42">
+      <c r="H46" s="38"/>
+      <c r="I46" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="165">
+      <c r="A47" s="37">
+        <v>46</v>
+      </c>
+      <c r="B47" s="38">
+        <v>3</v>
+      </c>
+      <c r="C47" s="41">
+        <v>42211</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="120">
+      <c r="A48" s="37">
+        <v>47</v>
+      </c>
+      <c r="B48" s="38">
         <v>1</v>
       </c>
-      <c r="C28" s="45">
-        <v>41852</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="G28" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="42" t="s">
+      <c r="C48" s="41">
+        <v>42211</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="G48" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="H48" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I48" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="145">
-      <c r="A29" s="41">
-        <v>28</v>
-      </c>
-      <c r="B29" s="42">
+    <row r="49" spans="1:9" ht="105">
+      <c r="A49" s="37">
+        <v>48</v>
+      </c>
+      <c r="B49" s="38">
+        <v>2</v>
+      </c>
+      <c r="C49" s="41">
+        <v>42211</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="G49" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="H49" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I49" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="180">
+      <c r="A50" s="37">
+        <v>49</v>
+      </c>
+      <c r="B50" s="38">
         <v>1</v>
       </c>
-      <c r="C29" s="45">
-        <v>41868</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="G29" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="29">
-      <c r="A30" s="41">
-        <v>29</v>
-      </c>
-      <c r="B30" s="42">
-        <v>1</v>
-      </c>
-      <c r="C30" s="45">
-        <v>41852</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="H30" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="43.5">
-      <c r="A31" s="41">
-        <v>30</v>
-      </c>
-      <c r="B31" s="42">
-        <v>3</v>
-      </c>
-      <c r="C31" s="45">
-        <v>41876</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="G31" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="H31" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="145">
-      <c r="A32" s="41">
-        <v>31</v>
-      </c>
-      <c r="B32" s="42">
-        <v>1</v>
-      </c>
-      <c r="C32" s="45">
-        <v>41876</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="H32" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I32" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="72.5">
-      <c r="A33" s="41">
-        <v>32</v>
-      </c>
-      <c r="B33" s="42">
-        <v>1</v>
-      </c>
-      <c r="C33" s="45">
-        <v>41879</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="G33" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="87">
-      <c r="A34" s="41">
-        <v>33</v>
-      </c>
-      <c r="B34" s="42">
-        <v>2</v>
-      </c>
-      <c r="C34" s="45">
-        <v>41879</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="G34" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="H34" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="159.5">
-      <c r="A35" s="41">
-        <v>34</v>
-      </c>
-      <c r="B35" s="42">
-        <v>1</v>
-      </c>
-      <c r="C35" s="45">
-        <v>41878</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="G35" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I35" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="101.5">
-      <c r="A36" s="41">
-        <v>35</v>
-      </c>
-      <c r="B36" s="42">
-        <v>1</v>
-      </c>
-      <c r="C36" s="45">
-        <v>41878</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="G36" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="H36" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I36" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="101.5">
-      <c r="A37" s="41">
-        <v>36</v>
-      </c>
-      <c r="B37" s="42">
-        <v>1</v>
-      </c>
-      <c r="C37" s="45">
-        <v>41883</v>
-      </c>
-      <c r="D37" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="G37" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="H37" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I37" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="29">
-      <c r="A38" s="41">
-        <v>37</v>
-      </c>
-      <c r="B38" s="42">
-        <v>2</v>
-      </c>
-      <c r="C38" s="45">
-        <v>41883</v>
-      </c>
-      <c r="D38" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="G38" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="H38" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I38" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="58">
-      <c r="A39" s="41">
-        <v>38</v>
-      </c>
-      <c r="B39" s="42">
-        <v>1</v>
-      </c>
-      <c r="C39" s="45">
-        <v>41883</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="G39" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="232">
-      <c r="A40" s="41">
-        <v>39</v>
-      </c>
-      <c r="B40" s="42">
-        <v>3</v>
-      </c>
-      <c r="C40" s="45">
-        <v>41884</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="F40" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="G40" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="H40" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="87">
-      <c r="A41" s="41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="42">
-        <v>1</v>
-      </c>
-      <c r="C41" s="45">
-        <v>41891</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="G41" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="H41" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I41" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="116">
-      <c r="A42" s="41">
-        <v>47</v>
-      </c>
-      <c r="B42" s="42">
-        <v>1</v>
-      </c>
-      <c r="C42" s="45">
-        <v>42211</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="G42" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="H42" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I42" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="72.5">
-      <c r="A43" s="41">
-        <v>42</v>
-      </c>
-      <c r="B43" s="42">
-        <v>1</v>
-      </c>
-      <c r="C43" s="45">
-        <v>41896</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="G43" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="H43" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I43" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="58">
-      <c r="A44" s="41">
-        <v>43</v>
-      </c>
-      <c r="B44" s="42">
-        <v>2</v>
-      </c>
-      <c r="C44" s="45">
-        <v>41893</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="G44" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="H44" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I44" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="159.5">
-      <c r="A45" s="41">
-        <v>44</v>
-      </c>
-      <c r="B45" s="42">
-        <v>1</v>
-      </c>
-      <c r="C45" s="45">
-        <v>41899</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="G45" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="H45" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I45" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="159.5">
-      <c r="A46" s="41">
-        <v>49</v>
-      </c>
-      <c r="B46" s="42">
-        <v>1</v>
-      </c>
-      <c r="C46" s="45">
+      <c r="C50" s="41">
         <v>41961</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="G46" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-    </row>
-    <row r="47" spans="1:9" ht="29">
-      <c r="A47" s="41">
-        <v>50</v>
-      </c>
-      <c r="B47" s="42">
-        <v>1</v>
-      </c>
-      <c r="C47" s="45">
-        <v>41971</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="G47" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="H47" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I47" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="43.5">
-      <c r="A48" s="41">
-        <v>51</v>
-      </c>
-      <c r="B48" s="42">
-        <v>1</v>
-      </c>
-      <c r="C48" s="45">
-        <v>42212</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="F48" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="G48" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="H48" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I48" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="87">
-      <c r="A49" s="41">
-        <v>48</v>
-      </c>
-      <c r="B49" s="42">
-        <v>2</v>
-      </c>
-      <c r="C49" s="45">
-        <v>42211</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="F49" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="G49" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="H49" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="I49" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="145">
-      <c r="A50" s="48">
-        <v>26</v>
-      </c>
-      <c r="B50" s="42">
-        <v>3</v>
-      </c>
-      <c r="C50" s="43">
-        <v>41843</v>
       </c>
       <c r="D50" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="42" t="s">
+      <c r="E50" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="G50" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="H50" s="42" t="s">
+      <c r="F50" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="G50" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+    </row>
+    <row r="51" spans="1:9" ht="30">
+      <c r="A51" s="37">
+        <v>50</v>
+      </c>
+      <c r="B51" s="38">
+        <v>1</v>
+      </c>
+      <c r="C51" s="41">
+        <v>41971</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="H51" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="I50" s="42" t="s">
+      <c r="I51" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="188.5">
-      <c r="A51" s="41">
-        <v>41</v>
-      </c>
-      <c r="B51" s="42">
-        <v>3</v>
-      </c>
-      <c r="C51" s="45">
-        <v>41892</v>
-      </c>
-      <c r="D51" s="46" t="s">
+    <row r="52" spans="1:9" ht="60">
+      <c r="A52" s="37">
+        <v>51</v>
+      </c>
+      <c r="B52" s="38">
+        <v>1</v>
+      </c>
+      <c r="C52" s="41">
+        <v>42212</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="G52" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="H52" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I52" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="45">
+      <c r="A53" s="37">
+        <v>52</v>
+      </c>
+      <c r="B53" s="38">
+        <v>1</v>
+      </c>
+      <c r="C53" s="41">
+        <v>42288</v>
+      </c>
+      <c r="D53" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E51" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="G51" s="44"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-    </row>
-    <row r="52" spans="1:9" ht="159.5">
-      <c r="A52" s="41">
-        <v>46</v>
-      </c>
-      <c r="B52" s="42">
-        <v>3</v>
-      </c>
-      <c r="C52" s="45">
-        <v>42211</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" s="42" t="s">
+      <c r="E53" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="G53" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="H53" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I53" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="409.5">
+      <c r="A54" s="37">
+        <v>53</v>
+      </c>
+      <c r="B54" s="38">
+        <v>1</v>
+      </c>
+      <c r="C54" s="41">
+        <v>42360</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="G52" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="H52" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="I52" s="42"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="41">
-        <v>52</v>
-      </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="41">
-        <v>53</v>
-      </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
+      <c r="F54" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="G54" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+    </row>
+    <row r="55" spans="1:9" ht="105">
+      <c r="A55" s="45">
+        <v>54</v>
+      </c>
+      <c r="B55" s="45">
+        <v>2</v>
+      </c>
+      <c r="C55" s="47">
+        <v>42395</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="H55" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="I55" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="120">
+      <c r="A56" s="45">
+        <v>55</v>
+      </c>
+      <c r="B56" s="45">
+        <v>2</v>
+      </c>
+      <c r="C56" s="47">
+        <v>42377</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="G56" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5975,17 +9104,17 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="9"/>
-    <col min="7" max="7" width="17.1796875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.54296875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="17.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
@@ -6014,135 +9143,135 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29">
+    <row r="3" spans="1:9" ht="45">
       <c r="A3" t="s">
         <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>89</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="28"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="28"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="28"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="28"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="28"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="28"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="28"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="28"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="28"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="31" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="28"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="31" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="26" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -6156,7 +9285,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>90</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -6167,7 +9296,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="9" t="s">
         <v>75</v>
       </c>
@@ -6176,7 +9305,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="9" t="s">
         <v>76</v>
       </c>
@@ -6185,20 +9314,20 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="22"/>
       <c r="B19" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="26"/>
+      <c r="A20" s="22"/>
       <c r="B20" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="28" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6217,20 +9346,20 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="9"/>
-    <col min="7" max="7" width="17.1796875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.54296875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="17.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -6264,90 +9393,90 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5">
+    <row r="3" spans="1:9" ht="45">
       <c r="A3" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>89</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="28"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="31" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="28"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="28"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="28"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="28"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="26" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -6361,7 +9490,7 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="22" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -6372,7 +9501,7 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="26"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="9" t="s">
         <v>75</v>
       </c>
@@ -6381,7 +9510,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="26"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="9" t="s">
         <v>76</v>
       </c>
@@ -6390,7 +9519,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="26"/>
+      <c r="A14" s="22"/>
       <c r="B14" t="s">
         <v>77</v>
       </c>
@@ -6402,7 +9531,7 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="26"/>
+      <c r="A15" s="22"/>
       <c r="B15" t="s">
         <v>78</v>
       </c>
@@ -6436,9 +9565,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6446,7 +9575,7 @@
       <c r="A1" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="36">
+      <c r="B1" s="32">
         <v>41637</v>
       </c>
     </row>
@@ -6454,7 +9583,7 @@
       <c r="A2" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="32">
         <v>41908</v>
       </c>
     </row>
